--- a/medicine/Handicap/Prieuré_Notre-Dame-d'Espérance_de_Croixrault/Prieuré_Notre-Dame-d'Espérance_de_Croixrault.xlsx
+++ b/medicine/Handicap/Prieuré_Notre-Dame-d'Espérance_de_Croixrault/Prieuré_Notre-Dame-d'Espérance_de_Croixrault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prieur%C3%A9_Notre-Dame-d%27Esp%C3%A9rance_de_Croixrault</t>
+          <t>Prieuré_Notre-Dame-d'Espérance_de_Croixrault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prieuré Notre-Dame-d'Espérance de Croixrault est un monastère catholique situé à Croixrault dans le département de la Somme, au sud-ouest d'Amiens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prieur%C3%A9_Notre-Dame-d%27Esp%C3%A9rance_de_Croixrault</t>
+          <t>Prieuré_Notre-Dame-d'Espérance_de_Croixrault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prieuré de Croixrault a été fondé le 1er octobre 1966 par le père Henri-Marie Guilluy, moine de l'abbaye bénédictine de Wisques. L'objectif de ce nouveau monastère est de mettre à la portée des malades, des handicapés, des faibles, la vie monastique en suivant la règle de Saint Benoît dans la mesure du possible. Cette fondation répondait à un besoin auquel aucun monastère jusque-là ne répondait.
-Notre-Dame-d'Espérance est érigée en congrégation diocésaine, le 2 février 1984, puis associée à l'Ordre bénédictin le 29 septembre 1990. Le prieuré de Croixrault est devenu la maison-mère et le siège du généralat de la congrégation Notre-Dame d'Espérance qui compte une dizaine de monastères[1].
+Notre-Dame-d'Espérance est érigée en congrégation diocésaine, le 2 février 1984, puis associée à l'Ordre bénédictin le 29 septembre 1990. Le prieuré de Croixrault est devenu la maison-mère et le siège du généralat de la congrégation Notre-Dame d'Espérance qui compte une dizaine de monastères.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prieur%C3%A9_Notre-Dame-d%27Esp%C3%A9rance_de_Croixrault</t>
+          <t>Prieuré_Notre-Dame-d'Espérance_de_Croixrault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison de Croixrault est mise à sa disposition par l'évêque d'Amiens. La propriété de près d'un hectare de terrain située dans le village est entourée de bois et de champs.
-Une chapelle, un réfectoire, des cellules sont construits autour de la maison de brique originelle. Des ateliers d'artisanat sont créés qui donnent à l'établissement sa notoriété : émaux, étains, icônes, statues de pierre reconstituée [1]...
-Dans le prieuré de Croixrault, les moines en bonne santé partagent leur vie avec des moines handicapés ou dépressifs « pour que les forts désirent faire davantage, et que les faibles ne s'enfuient pas » (règle de saint Benoît 64,19). La vie monastique est organisée selon la règle de saint Benoît, enrichie de l'esprit de Charles de Foucauld et de Thérèse de Lisieux[2].
+Une chapelle, un réfectoire, des cellules sont construits autour de la maison de brique originelle. Des ateliers d'artisanat sont créés qui donnent à l'établissement sa notoriété : émaux, étains, icônes, statues de pierre reconstituée ...
+Dans le prieuré de Croixrault, les moines en bonne santé partagent leur vie avec des moines handicapés ou dépressifs « pour que les forts désirent faire davantage, et que les faibles ne s'enfuient pas » (règle de saint Benoît 64,19). La vie monastique est organisée selon la règle de saint Benoît, enrichie de l'esprit de Charles de Foucauld et de Thérèse de Lisieux.
 </t>
         </is>
       </c>
